--- a/JamesPatterson.xlsx
+++ b/JamesPatterson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\Documents\Books\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB54A94D-D86A-4874-90DD-656CA07D6A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB828DE6-1B72-4EC0-B192-F8FE345CF7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="100">
   <si>
     <t>X</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>18th Abduction</t>
+  </si>
+  <si>
+    <t>Private Moscow</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,7 +469,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -786,20 +789,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="20.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -810,7 +811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -823,7 +824,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -834,7 +835,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -845,7 +846,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -856,7 +857,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -867,7 +868,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -878,7 +879,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
@@ -889,7 +890,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -900,7 +901,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>15</v>
@@ -911,7 +912,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>12</v>
@@ -922,7 +923,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -933,7 +934,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
@@ -944,7 +945,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>84</v>
@@ -955,7 +956,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
         <v>88</v>
@@ -966,7 +967,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="2" t="s">
         <v>89</v>
@@ -977,7 +978,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>96</v>
@@ -988,7 +989,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>97</v>
@@ -999,7 +1000,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
         <v>98</v>
@@ -1010,16 +1011,18 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
         <v>95</v>
@@ -1028,14 +1031,14 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
@@ -1048,7 +1051,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="2" t="s">
         <v>41</v>
@@ -1057,7 +1060,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="2" t="s">
         <v>42</v>
@@ -1068,7 +1071,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="2" t="s">
         <v>43</v>
@@ -1077,7 +1080,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="2" t="s">
         <v>39</v>
@@ -1088,7 +1091,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="2" t="s">
         <v>83</v>
@@ -1097,7 +1100,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>17</v>
       </c>
@@ -1110,7 +1113,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="2" t="s">
         <v>19</v>
@@ -1119,7 +1122,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="2" t="s">
         <v>20</v>
@@ -1128,7 +1131,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -1139,7 +1142,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="2" t="s">
         <v>22</v>
@@ -1150,7 +1153,7 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="2" t="s">
         <v>23</v>
@@ -1161,7 +1164,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="2" t="s">
         <v>24</v>
@@ -1172,7 +1175,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="2" t="s">
         <v>25</v>
@@ -1183,7 +1186,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="2" t="s">
         <v>26</v>
@@ -1194,7 +1197,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="2" t="s">
         <v>27</v>
@@ -1205,7 +1208,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
       <c r="B40" s="2" t="s">
         <v>28</v>
@@ -1216,7 +1219,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
       <c r="B41" s="2" t="s">
         <v>29</v>
@@ -1227,7 +1230,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
       <c r="B42" s="2" t="s">
         <v>30</v>
@@ -1238,16 +1241,18 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
       <c r="B43" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="2" t="s">
         <v>32</v>
@@ -1258,7 +1263,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
       <c r="B45" s="2" t="s">
         <v>33</v>
@@ -1269,7 +1274,7 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="7"/>
       <c r="B46" s="2" t="s">
         <v>34</v>
@@ -1280,7 +1285,7 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="B47" s="2" t="s">
         <v>35</v>
@@ -1291,7 +1296,7 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
       <c r="B48" s="4" t="s">
         <v>18</v>
@@ -1302,7 +1307,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="7"/>
       <c r="B49" s="3" t="s">
         <v>36</v>
@@ -1313,7 +1318,7 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="7"/>
       <c r="B50" s="2" t="s">
         <v>37</v>
@@ -1324,7 +1329,7 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
       <c r="B51" s="2" t="s">
         <v>81</v>
@@ -1333,7 +1338,7 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>44</v>
       </c>
@@ -1346,7 +1351,7 @@
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="7"/>
       <c r="B54" s="2" t="s">
         <v>44</v>
@@ -1357,7 +1362,7 @@
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="7"/>
       <c r="B55" s="2" t="s">
         <v>80</v>
@@ -1366,7 +1371,7 @@
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="7"/>
       <c r="B56" s="2" t="s">
         <v>47</v>
@@ -1375,7 +1380,7 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="7"/>
       <c r="B57" s="2" t="s">
         <v>48</v>
@@ -1384,7 +1389,7 @@
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="7"/>
       <c r="B58" s="4" t="s">
         <v>45</v>
@@ -1393,7 +1398,7 @@
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="7"/>
       <c r="B59" s="4" t="s">
         <v>85</v>
@@ -1402,8 +1407,8 @@
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="7"/>
       <c r="B60" s="4" t="s">
         <v>82</v>
       </c>
@@ -1411,52 +1416,52 @@
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="8"/>
+      <c r="B61" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="7"/>
       <c r="B64" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="7"/>
       <c r="B65" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="7"/>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>0</v>
@@ -1464,10 +1469,10 @@
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="7"/>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>0</v>
@@ -1475,10 +1480,10 @@
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="7"/>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>0</v>
@@ -1486,70 +1491,70 @@
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="7"/>
       <c r="B69" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="7"/>
       <c r="B70" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="7"/>
       <c r="B71" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="7"/>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="D72" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="7"/>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="7"/>
       <c r="B74" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="7"/>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>0</v>
@@ -1557,10 +1562,10 @@
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="7"/>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>0</v>
@@ -1568,10 +1573,10 @@
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="7"/>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>0</v>
@@ -1579,59 +1584,59 @@
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="7"/>
       <c r="B78" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="7"/>
       <c r="B79" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="7"/>
       <c r="B80" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="7"/>
       <c r="B81" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="7"/>
       <c r="B82" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="7"/>
       <c r="B83" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>0</v>
@@ -1639,10 +1644,10 @@
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="7"/>
       <c r="B84" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>0</v>
@@ -1650,147 +1655,159 @@
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="7"/>
       <c r="B85" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="7"/>
       <c r="B86" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="7"/>
       <c r="B87" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="7"/>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="7"/>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="7"/>
       <c r="B90" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="7"/>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="7"/>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="7"/>
       <c r="B93" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D93" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="7"/>
       <c r="B94" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="7"/>
-      <c r="B95" s="4" t="s">
-        <v>49</v>
+      <c r="B95" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="7"/>
-      <c r="B96" s="2" t="s">
-        <v>50</v>
+      <c r="B96" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="8"/>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="7"/>
       <c r="B97" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="8"/>
+      <c r="B98" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="A30:A51"/>
     <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A62:A97"/>
-    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="A63:A98"/>
+    <mergeCell ref="A53:A61"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B48" r:id="rId1" display="http://www.jamespatterson.com/books_alongCameASpider.php" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B58" r:id="rId2" display="http://www.jamespatterson.com/books_privateGames.php" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B95" r:id="rId3" display="http://www.jamespatterson.com/books_thomasBerrymanNumber.php" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B60" r:id="rId4" display="http://www.jamespatterson.com/books_privateGames.php" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B96" r:id="rId3" display="http://www.jamespatterson.com/books_thomasBerrymanNumber.php" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B61" r:id="rId4" display="http://www.jamespatterson.com/books_privateGames.php" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B60" r:id="rId5" display="http://www.jamespatterson.com/books_privateGames.php" xr:uid="{733DE5FD-8CAC-4C30-9560-325FD96D18E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1800,7 +1817,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1812,7 +1829,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
